--- a/ali.xlsx
+++ b/ali.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX4"/>
+  <dimension ref="A1:CY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,1706 +425,1711 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Название</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Цена</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Описание</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>фото1</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>фото2</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>фото3</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>фото4</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>фото5</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>фото6</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>Свойство 1</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Значение 1</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Свойство 2</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Значение 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Свойство 3</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Значение 3</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Свойство 4</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Значение 4</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Свойство 5</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Значение 5</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Свойство 6</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Значение 6</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Свойство 7</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Значение 7</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Свойство 8</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Значение 8</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Свойство 9</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>Значение 9</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Свойство 10</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>Значение 10</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>Свойство 11</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>Значение 11</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>Свойство 12</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>Значение 12</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Свойство 13</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Значение 13</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Свойство 14</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Значение 14</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Свойство 15</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Значение 15</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Свойство 16</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Значение 16</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>Свойство 17</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>Значение 17</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Свойство 18</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Значение 18</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Свойство 19</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Значение 19</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Свойство 20</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Значение 20</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>Свойство 21</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>Значение 21</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>Свойство 22</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>Значение 22</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>Свойство 23</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>Значение 23</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>Свойство 24</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>Значение 24</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>Свойство 25</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>Значение 25</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>Свойство 26</t>
         </is>
       </c>
-      <c r="BN1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>Значение 26</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>Свойство 27</t>
         </is>
       </c>
-      <c r="BP1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>Значение 27</t>
         </is>
       </c>
-      <c r="BQ1" t="inlineStr">
+      <c r="BR1" t="inlineStr">
         <is>
           <t>Свойство 28</t>
         </is>
       </c>
-      <c r="BR1" t="inlineStr">
+      <c r="BS1" t="inlineStr">
         <is>
           <t>Значение 28</t>
         </is>
       </c>
-      <c r="BS1" t="inlineStr">
+      <c r="BT1" t="inlineStr">
         <is>
           <t>Свойство 29</t>
         </is>
       </c>
-      <c r="BT1" t="inlineStr">
+      <c r="BU1" t="inlineStr">
         <is>
           <t>Значение 29</t>
         </is>
       </c>
-      <c r="BU1" t="inlineStr">
+      <c r="BV1" t="inlineStr">
         <is>
           <t>Свойство 30</t>
         </is>
       </c>
-      <c r="BV1" t="inlineStr">
+      <c r="BW1" t="inlineStr">
         <is>
           <t>Значение 30</t>
         </is>
       </c>
-      <c r="BW1" t="inlineStr">
+      <c r="BX1" t="inlineStr">
         <is>
           <t>Свойство 31</t>
         </is>
       </c>
-      <c r="BX1" t="inlineStr">
+      <c r="BY1" t="inlineStr">
         <is>
           <t>Значение 31</t>
         </is>
       </c>
-      <c r="BY1" t="inlineStr">
+      <c r="BZ1" t="inlineStr">
         <is>
           <t>Свойство 32</t>
         </is>
       </c>
-      <c r="BZ1" t="inlineStr">
+      <c r="CA1" t="inlineStr">
         <is>
           <t>Значение 32</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="CB1" t="inlineStr">
         <is>
           <t>Свойство 33</t>
         </is>
       </c>
-      <c r="CB1" t="inlineStr">
+      <c r="CC1" t="inlineStr">
         <is>
           <t>Значение 33</t>
         </is>
       </c>
-      <c r="CC1" t="inlineStr">
+      <c r="CD1" t="inlineStr">
         <is>
           <t>Свойство 34</t>
         </is>
       </c>
-      <c r="CD1" t="inlineStr">
+      <c r="CE1" t="inlineStr">
         <is>
           <t>Значение 34</t>
         </is>
       </c>
-      <c r="CE1" t="inlineStr">
+      <c r="CF1" t="inlineStr">
         <is>
           <t>Свойство 35</t>
         </is>
       </c>
-      <c r="CF1" t="inlineStr">
+      <c r="CG1" t="inlineStr">
         <is>
           <t>Значение 35</t>
         </is>
       </c>
-      <c r="CG1" t="inlineStr">
+      <c r="CH1" t="inlineStr">
         <is>
           <t>Свойство 36</t>
         </is>
       </c>
-      <c r="CH1" t="inlineStr">
+      <c r="CI1" t="inlineStr">
         <is>
           <t>Значение 36</t>
         </is>
       </c>
-      <c r="CI1" t="inlineStr">
+      <c r="CJ1" t="inlineStr">
         <is>
           <t>Свойство 37</t>
         </is>
       </c>
-      <c r="CJ1" t="inlineStr">
+      <c r="CK1" t="inlineStr">
         <is>
           <t>Значение 37</t>
         </is>
       </c>
-      <c r="CK1" t="inlineStr">
+      <c r="CL1" t="inlineStr">
         <is>
           <t>Свойство 38</t>
         </is>
       </c>
-      <c r="CL1" t="inlineStr">
+      <c r="CM1" t="inlineStr">
         <is>
           <t>Значение 38</t>
         </is>
       </c>
-      <c r="CM1" t="inlineStr">
+      <c r="CN1" t="inlineStr">
         <is>
           <t>Свойство 39</t>
         </is>
       </c>
-      <c r="CN1" t="inlineStr">
+      <c r="CO1" t="inlineStr">
         <is>
           <t>Значение 39</t>
         </is>
       </c>
-      <c r="CO1" t="inlineStr">
+      <c r="CP1" t="inlineStr">
         <is>
           <t>Свойство 40</t>
         </is>
       </c>
-      <c r="CP1" t="inlineStr">
+      <c r="CQ1" t="inlineStr">
         <is>
           <t>Значение 40</t>
         </is>
       </c>
-      <c r="CQ1" t="inlineStr">
+      <c r="CR1" t="inlineStr">
         <is>
           <t>Свойство 41</t>
         </is>
       </c>
-      <c r="CR1" t="inlineStr">
+      <c r="CS1" t="inlineStr">
         <is>
           <t>Значение 41</t>
         </is>
       </c>
-      <c r="CS1" t="inlineStr">
+      <c r="CT1" t="inlineStr">
         <is>
           <t>Свойство 42</t>
         </is>
       </c>
-      <c r="CT1" t="inlineStr">
+      <c r="CU1" t="inlineStr">
         <is>
           <t>Значение 42</t>
         </is>
       </c>
-      <c r="CU1" t="inlineStr">
+      <c r="CV1" t="inlineStr">
         <is>
           <t>Свойство 43</t>
         </is>
       </c>
-      <c r="CV1" t="inlineStr">
+      <c r="CW1" t="inlineStr">
         <is>
           <t>Значение 43</t>
         </is>
       </c>
-      <c r="CW1" t="inlineStr">
+      <c r="CX1" t="inlineStr">
         <is>
           <t>Свойство 44</t>
         </is>
       </c>
-      <c r="CX1" t="inlineStr">
+      <c r="CY1" t="inlineStr">
         <is>
           <t>Значение 44</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Alphamax Skytube девушка горничная от Misaki Kurchito Hiro Cat girls ПВХ фигурки модели игрушки Аниме Фигурки игрушки для подарка</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>1 451,21 - 3 687,23 руб.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="customText" id="1005000000084925" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style="font-size:28px"&gt;Alphamax Skytube девушка горничная от Misaki Kurchito Hiro кошка девушки ПВХ Фигурки Модель игрушки Аниме Фигурки игрушки для подарков&lt;/span&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div align="center" class="detailmodule_dynamic" style="text-align:center"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H62399e40d44146139757ba8bb9436586Z.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H0841ce465f74452291887397a0a66f33M.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hf54787d5d7514b7f982c3e4224691600o.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3d0d1b3367944388b58c42bbde370252N.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H274459a584e2486a8e8f5837f2c9bbb9G.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hd579a655fa6f4e328ebd8c254f1dfcc1C.jpg"/&gt;&lt;/p&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Hf797632e3fd44709ab3cb4d824df291fa/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H3fe9a57c524b4f2b9eaa7c3a6c8c3bbbS/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H583f2f01db024c518ff0c2716d9e0741z/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Ha3779ce5d72b421cb3c5d5f967b12d64H/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Haf23fab0466c46e89ac45fa8df4ed35e9/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H0dd981bc066d44d690083fdeb992db4d5/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>Название бренда</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Esencan</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Тип товара</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Куклы</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>18 +</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>Происхождение</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Пол</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Унисекс</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Предупреждение</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>Only applicable to adults</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Размеры</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>15cm</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>ACG имя</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Серийный номер производителя</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>Дистанционное управление</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>Версия</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>Первое издание</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>Характеристики</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>Внешние устройства</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>Номер модели</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>Alphamax Skytube Girl Maid By Misaki Kurchito Hiro</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>Вид анимации</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>Япония</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Состояние</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>Товары в наличии</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>Степень готовности</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>Масштаб</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>Тема</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>Кино и ТВ</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
+      <c r="BC2" t="inlineStr">
         <is>
           <t>Солдатики</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
+      <c r="BD2" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
         <is>
           <t>Набор солдатиков</t>
         </is>
       </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+      <c r="BG2" t="inlineStr">
         <is>
           <t>Части и компоненты для солдата</t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr">
+      <c r="BH2" t="inlineStr">
         <is>
           <t>Материал</t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
+      <c r="BI2" t="inlineStr">
         <is>
           <t>ПВХ</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>ACG характер</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
+      <c r="BK2" t="inlineStr">
         <is>
           <t>Misaki Kurchito Hiro Cat girls</t>
         </is>
       </c>
-      <c r="BK2" t="inlineStr">
+      <c r="BL2" t="inlineStr">
         <is>
           <t>Оригинальная упаковка</t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BM2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BN2" t="inlineStr">
         <is>
           <t>Тип куклы</t>
         </is>
       </c>
-      <c r="BN2" t="inlineStr">
+      <c r="BO2" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr">
+      <c r="BP2" t="inlineStr">
         <is>
           <t>Минимальная единица измерения</t>
         </is>
       </c>
-      <c r="BP2" t="inlineStr">
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>100000015</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BR2" t="inlineStr">
         <is>
           <t>Продано В</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BS2" t="inlineStr">
         <is>
           <t>sell_by_piece</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="BT2" t="inlineStr">
         <is>
           <t>Каждая упаковка</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="BU2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr">
+      <c r="BV2" t="inlineStr">
         <is>
           <t>Вес логистики</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr">
+      <c r="BW2" t="inlineStr">
         <is>
           <t>0.850</t>
         </is>
       </c>
-      <c r="BW2" t="inlineStr">
+      <c r="BX2" t="inlineStr">
         <is>
           <t>Размер логистики - длина (см)</t>
         </is>
       </c>
-      <c r="BX2" t="inlineStr">
+      <c r="BY2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BY2" t="inlineStr">
+      <c r="BZ2" t="inlineStr">
         <is>
           <t>Размер логистики - высота (см)</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr">
+      <c r="CA2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="CA2" t="inlineStr">
+      <c r="CB2" t="inlineStr">
         <is>
           <t>Размер логистики - ширина (см)</t>
         </is>
       </c>
-      <c r="CB2" t="inlineStr">
+      <c r="CC2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Фигурка амакано Мизуки канбаяси, 25 см, масштаб 1/4, ПВХ, экшн-фигурки, игрушки, фигурки аниме, игрушки-модели для взрослых</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>4 061,20 руб.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="relatedProduct" id="1005000000084925" title="" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;Родной Рисунок 25 см амакано Мизуки канбаяси 1/4 Масштаб ПВХ Фигурки игрушки Аниме Фигурка отлитая модель игрушки для взрослых&lt;/span&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;&lt;/span&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H383c34459efb44cfbe92dbd4503370ac2.jpg"/&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H9ae4a3005df14be2a01a36d00340c3c4A.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H2f467247552b43a9849540cf078e93516.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H63b52e5440d741089459bd1b3f15f4c9O.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H5d08245d9e834022b8d059dc401cabf7c.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H604aec9daa3a406a9cac9c77fda9826ec.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H0ab0d62e4bc744aea05d484e7dcdac71S.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hef7485b874c243f39e30b6cfcf7582e2z.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3814bef7d9b34304af2be47d50294004y.jpg"/&gt;&lt;/p&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H372a09d491dd4717afbc422dbc115eaau/25-1-4.jpg</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Hf3256f7de03b405b8ceac916b0f62e9bW/25-1-4.jpg</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Hdd6a3731a031437abe2449d8199f3c90p/25-1-4.jpg</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Hdcabc760c4ce4dd59671a76b7f0e1375L/25-1-4.jpg</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>Название бренда</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Тип товара</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Куклы</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>18 +</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>Происхождение</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Пол</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Унисекс</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Предупреждение</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>Размеры</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>25cm</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>ACG имя</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>Серийный номер производителя</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>Дистанционное управление</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>Версия</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Первое издание</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>Характеристики</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>Номер модели</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>Native Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>Вид анимации</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>Япония</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Состояние</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>Товары в наличии</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>Степень готовности</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>Тема</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>Кино и ТВ</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>Материал</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>ПВХ</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>Оригинальная упаковка</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>Тип куклы</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>figure</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
+      <c r="BH3" t="inlineStr">
         <is>
           <t>Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
+      <c r="BI3" t="inlineStr">
         <is>
           <t>girl</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>native figure</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="BK3" t="inlineStr">
         <is>
           <t>Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BL3" t="inlineStr">
         <is>
           <t>Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>Минимальная единица измерения</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
         <is>
           <t>100000015</t>
         </is>
       </c>
-      <c r="BO3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
         <is>
           <t>Продано В</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>sell_by_piece</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>Каждая упаковка</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
         <is>
           <t>Вес логистики</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="BU3" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr">
+      <c r="BV3" t="inlineStr">
         <is>
           <t>Размер логистики - длина (см)</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BW3" t="inlineStr">
+      <c r="BX3" t="inlineStr">
         <is>
           <t>Размер логистики - высота (см)</t>
         </is>
       </c>
-      <c r="BX3" t="inlineStr">
+      <c r="BY3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BY3" t="inlineStr">
+      <c r="BZ3" t="inlineStr">
         <is>
           <t>Размер логистики - ширина (см)</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
+      <c r="CA3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Фигурка Девочки Мидорикава из аниме «дайки», 25 см, иллюстрация цукуне Тайра 1/7, ПВХ экшн-модель, игрушка для взрослых, коллекционный подарок</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>1 917,70 руб.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="customText" id="1005000000084925" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="font-size:28px"&gt;Новый аниме Daiki Прачечная девушка Амане Мидорикава иллюстрация от Tsukune Taira 1/6 ПВХ фигурку игрушка статуя для взрослых Коллекция&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H7750e5bf4d684b2fbb7537fd3adc7f19Q.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3cb49a0f1c874dfabe9d994be80c6b1fa.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H856bfac77f3b41d0bbe4bf107242d1b5y.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H33d0c750252447e1a33ae74bf1ab4cafn.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3403fb8541164fb785523ed95e47faefq.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H6b7fe1c1809d42d0bd63c20f318e58c7f.jpg"/&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255, 255, 255);color:rgb(0, 0, 0);font-size:26px;font-family:OpenSans"&gt;Уважаемые покупатели, спасибо за покупку нашей продукции. Если есть какие-либо проблемы с получением, пожалуйста, немедленно свяжитесь с нами, мы разберемся с этим как можно скорее. Мы не принимаем вредоносные негативные отзывы. Если вам нравятся наши продукты. Доволен нашей продукцией. Я надеюсь, что вы дадите нам хороший комментарий. Надеюсь, вы сможете получить наш магазин. Вы можете связаться с нами перед следующей покупкой, и мы предоставим вам скидку. Спасибо всем.&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H03f5edf4aeb6474d8e40d1367ab08a6ar/25.jpg</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H6b7fe1c1809d42d0bd63c20f318e58c7f/25.jpg</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H33d0c750252447e1a33ae74bf1ab4cafn/25.jpg</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H3cb49a0f1c874dfabe9d994be80c6b1fa/25.jpg</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H7750e5bf4d684b2fbb7537fd3adc7f19Q/25.jpg</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H856bfac77f3b41d0bbe4bf107242d1b5y/25.jpg</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>Название бренда</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Esencan</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Тип товара</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>18 +</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>Происхождение</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Пол</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Унисекс</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Предупреждение</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>This product is suitable for adult purchase</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>Размеры</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>17cm</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>ACG имя</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Серийный номер производителя</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>Дистанционное управление</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>Версия</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>Обновленная версия</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>Характеристики</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>Номер модели</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>Daiki Tsukune Taira</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>Вид анимации</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>Япония</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>Состояние</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>Товары в наличии</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>Степень готовности</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>Масштаб</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>Тема</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>Кино и ТВ</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>Солдатики</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>Набор солдатиков</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>Части и компоненты для солдата</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
         <is>
           <t>Материал</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BI4" t="inlineStr">
         <is>
           <t>ПВХ</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>ACG характер</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
         <is>
           <t>for Daiki Amane Midorikawa Tsukune Taira</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BL4" t="inlineStr">
         <is>
           <t>Оригинальная упаковка</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>Тип куклы</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>Anime</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="BU4" t="inlineStr">
         <is>
           <t>Toys</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
         <is>
           <t>Gifts</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr">
+      <c r="BX4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BX4" t="inlineStr">
+      <c r="BY4" t="inlineStr">
         <is>
           <t>Dolls</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr">
+      <c r="BZ4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
+      <c r="CA4" t="inlineStr">
         <is>
           <t>Figure</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
+      <c r="CB4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
+      <c r="CC4" t="inlineStr">
         <is>
           <t>Grils</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr">
+      <c r="CD4" t="inlineStr">
         <is>
           <t>Native</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CF4" t="inlineStr">
         <is>
           <t>Skytube</t>
         </is>
       </c>
-      <c r="CF4" t="inlineStr">
+      <c r="CG4" t="inlineStr">
         <is>
           <t>Amane Midorikawa</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="CH4" t="inlineStr">
         <is>
           <t>Q SIX</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
         <is>
           <t>Tsukune Taira</t>
         </is>
       </c>
-      <c r="CI4" t="inlineStr">
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="CJ4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="CK4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
         <is>
           <t>Минимальная единица измерения</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>100000015</t>
         </is>
       </c>
-      <c r="CM4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>Продано В</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr">
+      <c r="CO4" t="inlineStr">
         <is>
           <t>sell_by_piece</t>
         </is>
       </c>
-      <c r="CO4" t="inlineStr">
+      <c r="CP4" t="inlineStr">
         <is>
           <t>Каждая упаковка</t>
         </is>
       </c>
-      <c r="CP4" t="inlineStr">
+      <c r="CQ4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="CQ4" t="inlineStr">
+      <c r="CR4" t="inlineStr">
         <is>
           <t>Вес логистики</t>
         </is>
       </c>
-      <c r="CR4" t="inlineStr">
+      <c r="CS4" t="inlineStr">
         <is>
           <t>0.700</t>
         </is>
       </c>
-      <c r="CS4" t="inlineStr">
+      <c r="CT4" t="inlineStr">
         <is>
           <t>Размер логистики - длина (см)</t>
         </is>
       </c>
-      <c r="CT4" t="inlineStr">
+      <c r="CU4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="CU4" t="inlineStr">
+      <c r="CV4" t="inlineStr">
         <is>
           <t>Размер логистики - высота (см)</t>
         </is>
       </c>
-      <c r="CV4" t="inlineStr">
+      <c r="CW4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="CW4" t="inlineStr">
+      <c r="CX4" t="inlineStr">
         <is>
           <t>Размер логистики - ширина (см)</t>
         </is>
       </c>
-      <c r="CX4" t="inlineStr">
+      <c r="CY4" t="inlineStr">
         <is>
           <t>15</t>
         </is>

--- a/ali.xlsx
+++ b/ali.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CY4"/>
+  <dimension ref="A1:CZ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,475 +440,480 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Категория</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Описание</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>фото1</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>фото2</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>фото3</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>фото4</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>фото5</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>фото6</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>Свойство 1</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>Значение 1</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>Свойство 2</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>Значение 2</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>Свойство 3</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>Значение 3</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>Свойство 4</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>Значение 4</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>Свойство 5</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>Значение 5</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>Свойство 6</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>Значение 6</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>Свойство 7</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>Значение 7</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>Свойство 8</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Значение 8</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>Свойство 9</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>Значение 9</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>Свойство 10</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>Значение 10</t>
         </is>
       </c>
-      <c r="AJ1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>Свойство 11</t>
         </is>
       </c>
-      <c r="AK1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>Значение 11</t>
         </is>
       </c>
-      <c r="AL1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>Свойство 12</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AN1" t="inlineStr">
         <is>
           <t>Значение 12</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AO1" t="inlineStr">
         <is>
           <t>Свойство 13</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>Значение 13</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>Свойство 14</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>Значение 14</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>Свойство 15</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>Значение 15</t>
         </is>
       </c>
-      <c r="AT1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Свойство 16</t>
         </is>
       </c>
-      <c r="AU1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
         <is>
           <t>Значение 16</t>
         </is>
       </c>
-      <c r="AV1" t="inlineStr">
+      <c r="AW1" t="inlineStr">
         <is>
           <t>Свойство 17</t>
         </is>
       </c>
-      <c r="AW1" t="inlineStr">
+      <c r="AX1" t="inlineStr">
         <is>
           <t>Значение 17</t>
         </is>
       </c>
-      <c r="AX1" t="inlineStr">
+      <c r="AY1" t="inlineStr">
         <is>
           <t>Свойство 18</t>
         </is>
       </c>
-      <c r="AY1" t="inlineStr">
+      <c r="AZ1" t="inlineStr">
         <is>
           <t>Значение 18</t>
         </is>
       </c>
-      <c r="AZ1" t="inlineStr">
+      <c r="BA1" t="inlineStr">
         <is>
           <t>Свойство 19</t>
         </is>
       </c>
-      <c r="BA1" t="inlineStr">
+      <c r="BB1" t="inlineStr">
         <is>
           <t>Значение 19</t>
         </is>
       </c>
-      <c r="BB1" t="inlineStr">
+      <c r="BC1" t="inlineStr">
         <is>
           <t>Свойство 20</t>
         </is>
       </c>
-      <c r="BC1" t="inlineStr">
+      <c r="BD1" t="inlineStr">
         <is>
           <t>Значение 20</t>
         </is>
       </c>
-      <c r="BD1" t="inlineStr">
+      <c r="BE1" t="inlineStr">
         <is>
           <t>Свойство 21</t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr">
+      <c r="BF1" t="inlineStr">
         <is>
           <t>Значение 21</t>
         </is>
       </c>
-      <c r="BF1" t="inlineStr">
+      <c r="BG1" t="inlineStr">
         <is>
           <t>Свойство 22</t>
         </is>
       </c>
-      <c r="BG1" t="inlineStr">
+      <c r="BH1" t="inlineStr">
         <is>
           <t>Значение 22</t>
         </is>
       </c>
-      <c r="BH1" t="inlineStr">
+      <c r="BI1" t="inlineStr">
         <is>
           <t>Свойство 23</t>
         </is>
       </c>
-      <c r="BI1" t="inlineStr">
+      <c r="BJ1" t="inlineStr">
         <is>
           <t>Значение 23</t>
         </is>
       </c>
-      <c r="BJ1" t="inlineStr">
+      <c r="BK1" t="inlineStr">
         <is>
           <t>Свойство 24</t>
         </is>
       </c>
-      <c r="BK1" t="inlineStr">
+      <c r="BL1" t="inlineStr">
         <is>
           <t>Значение 24</t>
         </is>
       </c>
-      <c r="BL1" t="inlineStr">
+      <c r="BM1" t="inlineStr">
         <is>
           <t>Свойство 25</t>
         </is>
       </c>
-      <c r="BM1" t="inlineStr">
+      <c r="BN1" t="inlineStr">
         <is>
           <t>Значение 25</t>
         </is>
       </c>
-      <c r="BN1" t="inlineStr">
+      <c r="BO1" t="inlineStr">
         <is>
           <t>Свойство 26</t>
         </is>
       </c>
-      <c r="BO1" t="inlineStr">
+      <c r="BP1" t="inlineStr">
         <is>
           <t>Значение 26</t>
         </is>
       </c>
-      <c r="BP1" t="inlineStr">
+      <c r="BQ1" t="inlineStr">
         <is>
           <t>Свойство 27</t>
         </is>
       </c>
-      <c r="BQ1" t="inlineStr">
+      <c r="BR1" t="inlineStr">
         <is>
           <t>Значение 27</t>
         </is>
       </c>
-      <c r="BR1" t="inlineStr">
+      <c r="BS1" t="inlineStr">
         <is>
           <t>Свойство 28</t>
         </is>
       </c>
-      <c r="BS1" t="inlineStr">
+      <c r="BT1" t="inlineStr">
         <is>
           <t>Значение 28</t>
         </is>
       </c>
-      <c r="BT1" t="inlineStr">
+      <c r="BU1" t="inlineStr">
         <is>
           <t>Свойство 29</t>
         </is>
       </c>
-      <c r="BU1" t="inlineStr">
+      <c r="BV1" t="inlineStr">
         <is>
           <t>Значение 29</t>
         </is>
       </c>
-      <c r="BV1" t="inlineStr">
+      <c r="BW1" t="inlineStr">
         <is>
           <t>Свойство 30</t>
         </is>
       </c>
-      <c r="BW1" t="inlineStr">
+      <c r="BX1" t="inlineStr">
         <is>
           <t>Значение 30</t>
         </is>
       </c>
-      <c r="BX1" t="inlineStr">
+      <c r="BY1" t="inlineStr">
         <is>
           <t>Свойство 31</t>
         </is>
       </c>
-      <c r="BY1" t="inlineStr">
+      <c r="BZ1" t="inlineStr">
         <is>
           <t>Значение 31</t>
         </is>
       </c>
-      <c r="BZ1" t="inlineStr">
+      <c r="CA1" t="inlineStr">
         <is>
           <t>Свойство 32</t>
         </is>
       </c>
-      <c r="CA1" t="inlineStr">
+      <c r="CB1" t="inlineStr">
         <is>
           <t>Значение 32</t>
         </is>
       </c>
-      <c r="CB1" t="inlineStr">
+      <c r="CC1" t="inlineStr">
         <is>
           <t>Свойство 33</t>
         </is>
       </c>
-      <c r="CC1" t="inlineStr">
+      <c r="CD1" t="inlineStr">
         <is>
           <t>Значение 33</t>
         </is>
       </c>
-      <c r="CD1" t="inlineStr">
+      <c r="CE1" t="inlineStr">
         <is>
           <t>Свойство 34</t>
         </is>
       </c>
-      <c r="CE1" t="inlineStr">
+      <c r="CF1" t="inlineStr">
         <is>
           <t>Значение 34</t>
         </is>
       </c>
-      <c r="CF1" t="inlineStr">
+      <c r="CG1" t="inlineStr">
         <is>
           <t>Свойство 35</t>
         </is>
       </c>
-      <c r="CG1" t="inlineStr">
+      <c r="CH1" t="inlineStr">
         <is>
           <t>Значение 35</t>
         </is>
       </c>
-      <c r="CH1" t="inlineStr">
+      <c r="CI1" t="inlineStr">
         <is>
           <t>Свойство 36</t>
         </is>
       </c>
-      <c r="CI1" t="inlineStr">
+      <c r="CJ1" t="inlineStr">
         <is>
           <t>Значение 36</t>
         </is>
       </c>
-      <c r="CJ1" t="inlineStr">
+      <c r="CK1" t="inlineStr">
         <is>
           <t>Свойство 37</t>
         </is>
       </c>
-      <c r="CK1" t="inlineStr">
+      <c r="CL1" t="inlineStr">
         <is>
           <t>Значение 37</t>
         </is>
       </c>
-      <c r="CL1" t="inlineStr">
+      <c r="CM1" t="inlineStr">
         <is>
           <t>Свойство 38</t>
         </is>
       </c>
-      <c r="CM1" t="inlineStr">
+      <c r="CN1" t="inlineStr">
         <is>
           <t>Значение 38</t>
         </is>
       </c>
-      <c r="CN1" t="inlineStr">
+      <c r="CO1" t="inlineStr">
         <is>
           <t>Свойство 39</t>
         </is>
       </c>
-      <c r="CO1" t="inlineStr">
+      <c r="CP1" t="inlineStr">
         <is>
           <t>Значение 39</t>
         </is>
       </c>
-      <c r="CP1" t="inlineStr">
+      <c r="CQ1" t="inlineStr">
         <is>
           <t>Свойство 40</t>
         </is>
       </c>
-      <c r="CQ1" t="inlineStr">
+      <c r="CR1" t="inlineStr">
         <is>
           <t>Значение 40</t>
         </is>
       </c>
-      <c r="CR1" t="inlineStr">
+      <c r="CS1" t="inlineStr">
         <is>
           <t>Свойство 41</t>
         </is>
       </c>
-      <c r="CS1" t="inlineStr">
+      <c r="CT1" t="inlineStr">
         <is>
           <t>Значение 41</t>
         </is>
       </c>
-      <c r="CT1" t="inlineStr">
+      <c r="CU1" t="inlineStr">
         <is>
           <t>Свойство 42</t>
         </is>
       </c>
-      <c r="CU1" t="inlineStr">
+      <c r="CV1" t="inlineStr">
         <is>
           <t>Значение 42</t>
         </is>
       </c>
-      <c r="CV1" t="inlineStr">
+      <c r="CW1" t="inlineStr">
         <is>
           <t>Свойство 43</t>
         </is>
       </c>
-      <c r="CW1" t="inlineStr">
+      <c r="CX1" t="inlineStr">
         <is>
           <t>Значение 43</t>
         </is>
       </c>
-      <c r="CX1" t="inlineStr">
+      <c r="CY1" t="inlineStr">
         <is>
           <t>Свойство 44</t>
         </is>
       </c>
-      <c r="CY1" t="inlineStr">
+      <c r="CZ1" t="inlineStr">
         <is>
           <t>Значение 44</t>
         </is>
@@ -927,365 +932,370 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>игрушки</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="customText" id="1005000000084925" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style="font-size:28px"&gt;Alphamax Skytube девушка горничная от Misaki Kurchito Hiro кошка девушки ПВХ Фигурки Модель игрушки Аниме Фигурки игрушки для подарков&lt;/span&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div align="center" class="detailmodule_dynamic" style="text-align:center"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H62399e40d44146139757ba8bb9436586Z.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H0841ce465f74452291887397a0a66f33M.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hf54787d5d7514b7f982c3e4224691600o.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3d0d1b3367944388b58c42bbde370252N.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H274459a584e2486a8e8f5837f2c9bbb9G.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hd579a655fa6f4e328ebd8c254f1dfcc1C.jpg"/&gt;&lt;/p&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Hf797632e3fd44709ab3cb4d824df291fa/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H3fe9a57c524b4f2b9eaa7c3a6c8c3bbbS/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H583f2f01db024c518ff0c2716d9e0741z/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Ha3779ce5d72b421cb3c5d5f967b12d64H/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Haf23fab0466c46e89ac45fa8df4ed35e9/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H0dd981bc066d44d690083fdeb992db4d5/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Название бренда</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Esencan</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Тип товара</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Куклы</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>18 +</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>Происхождение</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>Пол</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Унисекс</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>Предупреждение</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>Only applicable to adults</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Размеры</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>15cm</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>ACG имя</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>Серийный номер производителя</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>Дистанционное управление</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>Версия</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>Первое издание</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>Характеристики</t>
         </is>
       </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>Внешние устройства</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>Номер модели</t>
         </is>
       </c>
-      <c r="AQ2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>Alphamax Skytube Girl Maid By Misaki Kurchito Hiro</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>Вид анимации</t>
         </is>
       </c>
-      <c r="AS2" t="inlineStr">
+      <c r="AT2" t="inlineStr">
         <is>
           <t>Япония</t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>Состояние</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>Товары в наличии</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
+      <c r="AW2" t="inlineStr">
         <is>
           <t>Степень готовности</t>
         </is>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>Масштаб</t>
         </is>
       </c>
-      <c r="AY2" t="inlineStr">
+      <c r="AZ2" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
+      <c r="BA2" t="inlineStr">
         <is>
           <t>Тема</t>
         </is>
       </c>
-      <c r="BA2" t="inlineStr">
+      <c r="BB2" t="inlineStr">
         <is>
           <t>Кино и ТВ</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
+      <c r="BC2" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BC2" t="inlineStr">
+      <c r="BD2" t="inlineStr">
         <is>
           <t>Солдатики</t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
+      <c r="BE2" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BE2" t="inlineStr">
+      <c r="BF2" t="inlineStr">
         <is>
           <t>Набор солдатиков</t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
+      <c r="BG2" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BG2" t="inlineStr">
+      <c r="BH2" t="inlineStr">
         <is>
           <t>Части и компоненты для солдата</t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
+      <c r="BI2" t="inlineStr">
         <is>
           <t>Материал</t>
         </is>
       </c>
-      <c r="BI2" t="inlineStr">
+      <c r="BJ2" t="inlineStr">
         <is>
           <t>ПВХ</t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
+      <c r="BK2" t="inlineStr">
         <is>
           <t>ACG характер</t>
         </is>
       </c>
-      <c r="BK2" t="inlineStr">
+      <c r="BL2" t="inlineStr">
         <is>
           <t>Misaki Kurchito Hiro Cat girls</t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
+      <c r="BM2" t="inlineStr">
         <is>
           <t>Оригинальная упаковка</t>
         </is>
       </c>
-      <c r="BM2" t="inlineStr">
+      <c r="BN2" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="BN2" t="inlineStr">
+      <c r="BO2" t="inlineStr">
         <is>
           <t>Тип куклы</t>
         </is>
       </c>
-      <c r="BO2" t="inlineStr">
+      <c r="BP2" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="BP2" t="inlineStr">
+      <c r="BQ2" t="inlineStr">
         <is>
           <t>Минимальная единица измерения</t>
         </is>
       </c>
-      <c r="BQ2" t="inlineStr">
+      <c r="BR2" t="inlineStr">
         <is>
           <t>100000015</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="BS2" t="inlineStr">
         <is>
           <t>Продано В</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="BT2" t="inlineStr">
         <is>
           <t>sell_by_piece</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="BU2" t="inlineStr">
         <is>
           <t>Каждая упаковка</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr">
+      <c r="BV2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr">
+      <c r="BW2" t="inlineStr">
         <is>
           <t>Вес логистики</t>
         </is>
       </c>
-      <c r="BW2" t="inlineStr">
+      <c r="BX2" t="inlineStr">
         <is>
           <t>0.850</t>
         </is>
       </c>
-      <c r="BX2" t="inlineStr">
+      <c r="BY2" t="inlineStr">
         <is>
           <t>Размер логистики - длина (см)</t>
         </is>
       </c>
-      <c r="BY2" t="inlineStr">
+      <c r="BZ2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr">
+      <c r="CA2" t="inlineStr">
         <is>
           <t>Размер логистики - высота (см)</t>
         </is>
       </c>
-      <c r="CA2" t="inlineStr">
+      <c r="CB2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="CB2" t="inlineStr">
+      <c r="CC2" t="inlineStr">
         <is>
           <t>Размер логистики - ширина (см)</t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr">
+      <c r="CD2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1304,345 +1314,350 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>игрушки</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="relatedProduct" id="1005000000084925" title="" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;Родной Рисунок 25 см амакано Мизуки канбаяси 1/4 Масштаб ПВХ Фигурки игрушки Аниме Фигурка отлитая модель игрушки для взрослых&lt;/span&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;&lt;/span&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H383c34459efb44cfbe92dbd4503370ac2.jpg"/&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H9ae4a3005df14be2a01a36d00340c3c4A.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H2f467247552b43a9849540cf078e93516.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H63b52e5440d741089459bd1b3f15f4c9O.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H5d08245d9e834022b8d059dc401cabf7c.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H604aec9daa3a406a9cac9c77fda9826ec.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H0ab0d62e4bc744aea05d484e7dcdac71S.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hef7485b874c243f39e30b6cfcf7582e2z.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3814bef7d9b34304af2be47d50294004y.jpg"/&gt;&lt;/p&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H372a09d491dd4717afbc422dbc115eaau/25-1-4.jpg</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Hf3256f7de03b405b8ceac916b0f62e9bW/25-1-4.jpg</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Hdd6a3731a031437abe2449d8199f3c90p/25-1-4.jpg</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/Hdcabc760c4ce4dd59671a76b7f0e1375L/25-1-4.jpg</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Название бренда</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Тип товара</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Куклы</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>18 +</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>Происхождение</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>Пол</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>Унисекс</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>Предупреждение</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>no</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>Размеры</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>25cm</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>ACG имя</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>Серийный номер производителя</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>Дистанционное управление</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Версия</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>Первое издание</t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>Характеристики</t>
         </is>
       </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>Номер модели</t>
         </is>
       </c>
-      <c r="AQ3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>Native Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
         <is>
           <t>Вид анимации</t>
         </is>
       </c>
-      <c r="AS3" t="inlineStr">
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Япония</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>Состояние</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>Товары в наличии</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
+      <c r="AW3" t="inlineStr">
         <is>
           <t>Степень готовности</t>
         </is>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AY3" t="inlineStr">
         <is>
           <t>Тема</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AZ3" t="inlineStr">
         <is>
           <t>Кино и ТВ</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
+      <c r="BA3" t="inlineStr">
         <is>
           <t>Материал</t>
         </is>
       </c>
-      <c r="BA3" t="inlineStr">
+      <c r="BB3" t="inlineStr">
         <is>
           <t>ПВХ</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
+      <c r="BC3" t="inlineStr">
         <is>
           <t>Оригинальная упаковка</t>
         </is>
       </c>
-      <c r="BC3" t="inlineStr">
+      <c r="BD3" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
+      <c r="BE3" t="inlineStr">
         <is>
           <t>Тип куклы</t>
         </is>
       </c>
-      <c r="BE3" t="inlineStr">
+      <c r="BF3" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
+      <c r="BG3" t="inlineStr">
         <is>
           <t>Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="BG3" t="inlineStr">
+      <c r="BH3" t="inlineStr">
         <is>
           <t>figure</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
+      <c r="BI3" t="inlineStr">
         <is>
           <t>Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="BI3" t="inlineStr">
+      <c r="BJ3" t="inlineStr">
         <is>
           <t>girl</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
+      <c r="BK3" t="inlineStr">
         <is>
           <t>native figure</t>
         </is>
       </c>
-      <c r="BK3" t="inlineStr">
+      <c r="BL3" t="inlineStr">
         <is>
           <t>Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
+      <c r="BM3" t="inlineStr">
         <is>
           <t>Amakano Mizuki Kanbayashi</t>
         </is>
       </c>
-      <c r="BM3" t="inlineStr">
+      <c r="BN3" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="BN3" t="inlineStr">
+      <c r="BO3" t="inlineStr">
         <is>
           <t>Минимальная единица измерения</t>
         </is>
       </c>
-      <c r="BO3" t="inlineStr">
+      <c r="BP3" t="inlineStr">
         <is>
           <t>100000015</t>
         </is>
       </c>
-      <c r="BP3" t="inlineStr">
+      <c r="BQ3" t="inlineStr">
         <is>
           <t>Продано В</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr">
+      <c r="BR3" t="inlineStr">
         <is>
           <t>sell_by_piece</t>
         </is>
       </c>
-      <c r="BR3" t="inlineStr">
+      <c r="BS3" t="inlineStr">
         <is>
           <t>Каждая упаковка</t>
         </is>
       </c>
-      <c r="BS3" t="inlineStr">
+      <c r="BT3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BT3" t="inlineStr">
+      <c r="BU3" t="inlineStr">
         <is>
           <t>Вес логистики</t>
         </is>
       </c>
-      <c r="BU3" t="inlineStr">
+      <c r="BV3" t="inlineStr">
         <is>
           <t>1.000</t>
         </is>
       </c>
-      <c r="BV3" t="inlineStr">
+      <c r="BW3" t="inlineStr">
         <is>
           <t>Размер логистики - длина (см)</t>
         </is>
       </c>
-      <c r="BW3" t="inlineStr">
+      <c r="BX3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BX3" t="inlineStr">
+      <c r="BY3" t="inlineStr">
         <is>
           <t>Размер логистики - высота (см)</t>
         </is>
       </c>
-      <c r="BY3" t="inlineStr">
+      <c r="BZ3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="BZ3" t="inlineStr">
+      <c r="CA3" t="inlineStr">
         <is>
           <t>Размер логистики - ширина (см)</t>
         </is>
       </c>
-      <c r="CA3" t="inlineStr">
+      <c r="CB3" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1661,475 +1676,480 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>игрушки</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="customText" id="1005000000084925" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="font-size:28px"&gt;Новый аниме Daiki Прачечная девушка Амане Мидорикава иллюстрация от Tsukune Taira 1/6 ПВХ фигурку игрушка статуя для взрослых Коллекция&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H7750e5bf4d684b2fbb7537fd3adc7f19Q.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3cb49a0f1c874dfabe9d994be80c6b1fa.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H856bfac77f3b41d0bbe4bf107242d1b5y.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H33d0c750252447e1a33ae74bf1ab4cafn.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3403fb8541164fb785523ed95e47faefq.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H6b7fe1c1809d42d0bd63c20f318e58c7f.jpg"/&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255, 255, 255);color:rgb(0, 0, 0);font-size:26px;font-family:OpenSans"&gt;Уважаемые покупатели, спасибо за покупку нашей продукции. Если есть какие-либо проблемы с получением, пожалуйста, немедленно свяжитесь с нами, мы разберемся с этим как можно скорее. Мы не принимаем вредоносные негативные отзывы. Если вам нравятся наши продукты. Доволен нашей продукцией. Я надеюсь, что вы дадите нам хороший комментарий. Надеюсь, вы сможете получить наш магазин. Вы можете связаться с нами перед следующей покупкой, и мы предоставим вам скидку. Спасибо всем.&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H03f5edf4aeb6474d8e40d1367ab08a6ar/25.jpg</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H6b7fe1c1809d42d0bd63c20f318e58c7f/25.jpg</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H33d0c750252447e1a33ae74bf1ab4cafn/25.jpg</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H3cb49a0f1c874dfabe9d994be80c6b1fa/25.jpg</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H7750e5bf4d684b2fbb7537fd3adc7f19Q/25.jpg</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>https://ae04.alicdn.com/kf/H856bfac77f3b41d0bbe4bf107242d1b5y/25.jpg</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Название бренда</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Esencan</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Тип товара</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Рекомендованный возраст; Ширина</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>18 +</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>Происхождение</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
         <is>
           <t>Китай</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AA4" t="inlineStr">
         <is>
           <t>Пол</t>
         </is>
       </c>
-      <c r="AA4" t="inlineStr">
+      <c r="AB4" t="inlineStr">
         <is>
           <t>Унисекс</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>Предупреждение</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>This product is suitable for adult purchase</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>Размеры</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>17cm</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>ACG имя</t>
         </is>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>Другое</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>Серийный номер производителя</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>Дистанционное управление</t>
         </is>
       </c>
-      <c r="AK4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>Версия</t>
         </is>
       </c>
-      <c r="AM4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>Обновленная версия</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
         <is>
           <t>Характеристики</t>
         </is>
       </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AP4" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>Номер модели</t>
         </is>
       </c>
-      <c r="AQ4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>Daiki Tsukune Taira</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
         <is>
           <t>Вид анимации</t>
         </is>
       </c>
-      <c r="AS4" t="inlineStr">
+      <c r="AT4" t="inlineStr">
         <is>
           <t>Япония</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AU4" t="inlineStr">
         <is>
           <t>Состояние</t>
         </is>
       </c>
-      <c r="AU4" t="inlineStr">
+      <c r="AV4" t="inlineStr">
         <is>
           <t>Товары в наличии</t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
+      <c r="AW4" t="inlineStr">
         <is>
           <t>Степень готовности</t>
         </is>
       </c>
-      <c r="AW4" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>Готовые товары</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>Масштаб</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AZ4" t="inlineStr">
         <is>
           <t>1/6</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
+      <c r="BA4" t="inlineStr">
         <is>
           <t>Тема</t>
         </is>
       </c>
-      <c r="BA4" t="inlineStr">
+      <c r="BB4" t="inlineStr">
         <is>
           <t>Кино и ТВ</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
+      <c r="BC4" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BC4" t="inlineStr">
+      <c r="BD4" t="inlineStr">
         <is>
           <t>Солдатики</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
+      <c r="BE4" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BE4" t="inlineStr">
+      <c r="BF4" t="inlineStr">
         <is>
           <t>Набор солдатиков</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
+      <c r="BG4" t="inlineStr">
         <is>
           <t>Комплектация</t>
         </is>
       </c>
-      <c r="BG4" t="inlineStr">
+      <c r="BH4" t="inlineStr">
         <is>
           <t>Части и компоненты для солдата</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BI4" t="inlineStr">
         <is>
           <t>Материал</t>
         </is>
       </c>
-      <c r="BI4" t="inlineStr">
+      <c r="BJ4" t="inlineStr">
         <is>
           <t>ПВХ</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
+      <c r="BK4" t="inlineStr">
         <is>
           <t>ACG характер</t>
         </is>
       </c>
-      <c r="BK4" t="inlineStr">
+      <c r="BL4" t="inlineStr">
         <is>
           <t>for Daiki Amane Midorikawa Tsukune Taira</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
+      <c r="BM4" t="inlineStr">
         <is>
           <t>Оригинальная упаковка</t>
         </is>
       </c>
-      <c r="BM4" t="inlineStr">
+      <c r="BN4" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
-      <c r="BN4" t="inlineStr">
+      <c r="BO4" t="inlineStr">
         <is>
           <t>Тип куклы</t>
         </is>
       </c>
-      <c r="BO4" t="inlineStr">
+      <c r="BP4" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="BP4" t="inlineStr">
+      <c r="BQ4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr">
+      <c r="BR4" t="inlineStr">
         <is>
           <t>Anime</t>
         </is>
       </c>
-      <c r="BR4" t="inlineStr">
+      <c r="BS4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BS4" t="inlineStr">
+      <c r="BT4" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="BT4" t="inlineStr">
+      <c r="BU4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BU4" t="inlineStr">
+      <c r="BV4" t="inlineStr">
         <is>
           <t>Toys</t>
         </is>
       </c>
-      <c r="BV4" t="inlineStr">
+      <c r="BW4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BW4" t="inlineStr">
+      <c r="BX4" t="inlineStr">
         <is>
           <t>Gifts</t>
         </is>
       </c>
-      <c r="BX4" t="inlineStr">
+      <c r="BY4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="BY4" t="inlineStr">
+      <c r="BZ4" t="inlineStr">
         <is>
           <t>Dolls</t>
         </is>
       </c>
-      <c r="BZ4" t="inlineStr">
+      <c r="CA4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="CA4" t="inlineStr">
+      <c r="CB4" t="inlineStr">
         <is>
           <t>Figure</t>
         </is>
       </c>
-      <c r="CB4" t="inlineStr">
+      <c r="CC4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="CC4" t="inlineStr">
+      <c r="CD4" t="inlineStr">
         <is>
           <t>Grils</t>
         </is>
       </c>
-      <c r="CD4" t="inlineStr">
+      <c r="CE4" t="inlineStr">
         <is>
           <t>Native</t>
         </is>
       </c>
-      <c r="CE4" t="inlineStr">
+      <c r="CF4" t="inlineStr">
         <is>
           <t>Adult</t>
         </is>
       </c>
-      <c r="CF4" t="inlineStr">
+      <c r="CG4" t="inlineStr">
         <is>
           <t>Skytube</t>
         </is>
       </c>
-      <c r="CG4" t="inlineStr">
+      <c r="CH4" t="inlineStr">
         <is>
           <t>Amane Midorikawa</t>
         </is>
       </c>
-      <c r="CH4" t="inlineStr">
+      <c r="CI4" t="inlineStr">
         <is>
           <t>Q SIX</t>
         </is>
       </c>
-      <c r="CI4" t="inlineStr">
+      <c r="CJ4" t="inlineStr">
         <is>
           <t>Tsukune Taira</t>
         </is>
       </c>
-      <c r="CJ4" t="inlineStr">
+      <c r="CK4" t="inlineStr">
         <is>
           <t>Daiki</t>
         </is>
       </c>
-      <c r="CK4" t="inlineStr">
+      <c r="CL4" t="inlineStr">
         <is>
           <t>Collection</t>
         </is>
       </c>
-      <c r="CL4" t="inlineStr">
+      <c r="CM4" t="inlineStr">
         <is>
           <t>Минимальная единица измерения</t>
         </is>
       </c>
-      <c r="CM4" t="inlineStr">
+      <c r="CN4" t="inlineStr">
         <is>
           <t>100000015</t>
         </is>
       </c>
-      <c r="CN4" t="inlineStr">
+      <c r="CO4" t="inlineStr">
         <is>
           <t>Продано В</t>
         </is>
       </c>
-      <c r="CO4" t="inlineStr">
+      <c r="CP4" t="inlineStr">
         <is>
           <t>sell_by_piece</t>
         </is>
       </c>
-      <c r="CP4" t="inlineStr">
+      <c r="CQ4" t="inlineStr">
         <is>
           <t>Каждая упаковка</t>
         </is>
       </c>
-      <c r="CQ4" t="inlineStr">
+      <c r="CR4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="CR4" t="inlineStr">
+      <c r="CS4" t="inlineStr">
         <is>
           <t>Вес логистики</t>
         </is>
       </c>
-      <c r="CS4" t="inlineStr">
+      <c r="CT4" t="inlineStr">
         <is>
           <t>0.700</t>
         </is>
       </c>
-      <c r="CT4" t="inlineStr">
+      <c r="CU4" t="inlineStr">
         <is>
           <t>Размер логистики - длина (см)</t>
         </is>
       </c>
-      <c r="CU4" t="inlineStr">
+      <c r="CV4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="CV4" t="inlineStr">
+      <c r="CW4" t="inlineStr">
         <is>
           <t>Размер логистики - высота (см)</t>
         </is>
       </c>
-      <c r="CW4" t="inlineStr">
+      <c r="CX4" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="CX4" t="inlineStr">
+      <c r="CY4" t="inlineStr">
         <is>
           <t>Размер логистики - ширина (см)</t>
         </is>
       </c>
-      <c r="CY4" t="inlineStr">
+      <c r="CZ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>

--- a/ali.xlsx
+++ b/ali.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CZ4"/>
+  <dimension ref="A1:DB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,16 +918,26 @@
           <t>Значение 44</t>
         </is>
       </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>Свойство 45</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>Значение 45</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alphamax Skytube девушка горничная от Misaki Kurchito Hiro Cat girls ПВХ фигурки модели игрушки Аниме Фигурки игрушки для подарка</t>
+          <t>Экшн-фигурки из аниме Kanroji Mitsuri, 17 см</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1 451,21 - 3 687,23 руб.</t>
+          <t>1 722,28 руб.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -937,37 +947,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="customText" id="1005000000084925" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style="font-size:28px"&gt;Alphamax Skytube девушка горничная от Misaki Kurchito Hiro кошка девушки ПВХ Фигурки Модель игрушки Аниме Фигурки игрушки для подарков&lt;/span&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div align="center" class="detailmodule_dynamic" style="text-align:center"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H62399e40d44146139757ba8bb9436586Z.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H0841ce465f74452291887397a0a66f33M.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hf54787d5d7514b7f982c3e4224691600o.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3d0d1b3367944388b58c42bbde370252N.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H274459a584e2486a8e8f5837f2c9bbb9G.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hd579a655fa6f4e328ebd8c254f1dfcc1C.jpg"/&gt;&lt;/p&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="relatedProduct" id="1005000000084925" title="" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;br/&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size:26px"&gt;17 см-24 см аниме Kanroji Mitsuri Demon Slayer фигурка kimetsu no yaiba Фигурки ПВХ модель игрушки Коллекционная кукла подарок бесплатная доставка&lt;br/&gt;&lt;/span&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;a class="" href="https://www.aliexpress.com/item/1005003408971489.html?spm=a2g0o.productlist.0.0.6de7412d0gKZ6U&amp;amp;algo_pvid=bf526611-13b6-4bf4-b260-ef55982c99a3&amp;amp;aem_p4p_detail=20211015080301699153904562050008206908&amp;amp;algo_exp_id=bf526611-13b6-4bf4-b260-ef55982c99a3-4&amp;amp;pdp_ext_f=%7B%22sku_id%22%3A%2212000025659534063%22%7D" target="_self"&gt;&lt;img height="469" slate-data-type="image" src="https://ae01.alicdn.com/kf/H85197eef5c3f4b24a591969c6edfa4c3J.png" width="462"/&gt;&lt;/a&gt;&lt;a class="" href="https://www.aliexpress.com/item/1005003441428772.html?spm=5261.ProductManageOnline.0.0.d2784edfm1TdZq" target="_self"&gt;&lt;img height="469" slate-data-type="image" src="https://ae01.alicdn.com/kf/H88e8fb882611462b8b9095b68adc6abfz.png" width="462"/&gt;&lt;/a&gt;&lt;a class="" href="https://www.aliexpress.com/item/1005003027602758.html?spm=5261.ProductManageOnline.0.0.3a724edfSai8bT" target="_self"&gt;&lt;img height="469" slate-data-type="image" src="https://ae01.alicdn.com/kf/Ha819b834ac9442a3811ce23ea7599996G.png" width="462"/&gt;&lt;/a&gt;&lt;a class="" href="https://www.aliexpress.com/item/1005002856995064.html?spm=a2g0o.store_pc_allProduct.8148356.8.4cdc330eauuqm0" target="_self"&gt;&lt;img height="469" slate-data-type="image" src="https://ae01.alicdn.com/kf/He04034b65f0e47aa96dd2a4a80328fddN.png" width="462"/&gt;&lt;/a&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size:28px"&gt;Описание товара:&lt;/span&gt;&lt;span style="font-size:26px"&gt;Стоящий Kanroji Mitsuri&lt;/span&gt;&lt;/p&gt;&lt;p style="font-size:14px;font-weight:400;line-height:inherit;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="left" style="font-size:14px;font-weight:400;line-height:inherit;text-align:left;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;span style="font-size:22px"&gt;Материал персонажа: жесткий ПВХ&lt;/span&gt;&lt;/p&gt;&lt;p style="font-size:14px;font-weight:400;line-height:inherit;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="left" style="font-size:14px;font-weight:400;line-height:inherit;text-align:left;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;span style="font-size:22px"&gt;Высота характера: высота: 21 см ширина: 14,5 см&lt;/span&gt;&lt;/p&gt;&lt;p style="font-size:14px;font-weight:400;line-height:inherit;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="left" style="font-size:14px;font-weight:400;line-height:inherit;text-align:left;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;span style="font-size:22px"&gt;Характеристики персонажа: основание подключено к изделию и не может быть разобрано.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="font-size:14px;font-weight:400;line-height:inherit;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;span style="font-size:28px"&gt;Описание товара:&lt;/span&gt;&lt;span style="font-size:26px"&gt;Положение на коленях Kanroji Mitsuri&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="font-size:14px;font-weight:400;line-height:inherit;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="left" style="font-size:14px;font-weight:400;line-height:inherit;text-align:left;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;span style="font-size:22px"&gt;Материал персонажа: жесткий ПВХ&lt;/span&gt;&lt;/p&gt;&lt;p style="font-size:14px;font-weight:400;line-height:inherit;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="left" style="font-size:14px;font-weight:400;line-height:inherit;text-align:left;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;span style="font-size:22px"&gt;Высота персонажа: высота: 17 см ширина: 14 см&lt;/span&gt;&lt;/p&gt;&lt;p style="font-size:14px;font-weight:400;line-height:inherit;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="left" style="font-size:14px;font-weight:400;line-height:inherit;text-align:left;margin:0px;margin-bottom:0px;margin-top:0px;margin-left:0px;margin-right:0px;padding:0px;padding-bottom:0px;padding-top:0px;padding-left:0px;padding-right:0px;box-sizing:border-box"&gt;&lt;span style="font-size:22px"&gt;Характеристики персонажа: головка может быть отсоединена&lt;/span&gt;&lt;br/&gt;&lt;span style="font-size:26px"&gt;&lt;br/&gt;&lt;/span&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="left" style="text-align:left"&gt;&lt;br/&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="color:rgb(104, 188, 0);font-size:72px"&gt;Примечание 1&lt;/span&gt;&lt;/p&gt;&lt;p align="left" style="text-align:left"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="left" style="text-align:left"&gt;&lt;span style="color:rgb(51, 51, 51);font-size:32px"&gt;Этот продукт является новым продуктом. Мы все делаем фотографии с реальными фотографиями. Если вам нужно больше фотографий. Пожалуйста, свяжитесь с нами. Если есть какие-либо проблемы с полученным товаром. Пожалуйста, свяжитесь с нами как можно скорее. Мы немедленно разберемся с этим. Спасибо всем.&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="color:rgb(211, 49, 21);font-size:72px"&gt;Примечание 2&lt;/span&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="color:rgb(211, 49, 21);font-size:72px"&gt;&lt;/span&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H5d51c2a615b94b79a24a13b323312162B.jpg"/&gt;&lt;span style="color:rgb(211, 49, 21);font-size:72px"&gt;&lt;/span&gt;&lt;/p&gt;&lt;br/&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="font-size:32px"&gt;Раскладушка на коленях Kanroji Mitsuri&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hb497ed9b3f6e4ec194ffbefe5723b260L.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H06d1c732a4cc422ea1ef072083074746n.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H055f57b2ef254367b515fdb29f5f7113t.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H14f850f95c4a46039013a0a307aa85b3m.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H8ca4ab854ece40e5bd51570aaab6ead5N.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H8571edab6baa47f9a6610378b6618988Q.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H6ef122656f834bc094b6a94b9a0623fbv.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H36ce0770d2c4478c90718a938efbbf22X.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hddc5901fc39f44f59516069ea297f037P.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Ha8d2f5244d7a4ff4888ccca1bae30206q.jpg"/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="font-size:32px"&gt;Физическая фотография, сделанная на мобильный телефон, не обрабатывается. Настоящий&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hcd5af935373249b9a03aee3ca6222041f.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hff74e8d788074387880cca5e29877236t.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hd94544ae631f463abc84af1b88c12451d.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hc0a23f61cb1c4687ba656603b79891090.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H95eeb8b574f34cf493cff8d0c370af95D.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hab816730b6b843b88b77d4988c89c533H.jpg"/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="font-size:32px"&gt;Стоящий Kanroji Mitsuri график сцены&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H45dee5aaa7d4423bb1899775c168b3baS.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hfe479d45d27145d8bc3fb2f2f367931a8.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hf71bde3f19194c37a4273b46f87471f3Y.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hd35fcf510f6e4206971a626d5919717aT.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3289a046a53846d0be28f03842570354A.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H816c7a7fa8a843b88d1fbb356e3508dcF.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H1ddde86f7e6c4b2eb4fcf7484b4108362.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hee141e62a8b646c5833f3bc2dbc52152T.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H90467e5885294458afda3f7996deee83b.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hef60477f4ab54835be4e49967b561d97E.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H072524c1b59c4b3b802d5a4db1eb7794k.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H630c8ede54cb4a9e85af0905eb8390c2U.jpg"/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size:28px"&gt;Ниже показана картина, которую мы сделали. Полностью настоящий. Надеюсь, вам понравится.&lt;/span&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Haa9d5c474304430b81fd5d2f39432c72X.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H1528db3c8c72479881c8aefeac757ad8I.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H8802731a4e944e5b976049913ba9af08b.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hce3f949a5e6a4bcebd700d18ec01c6d8k.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H6fa0c54411974f75b8f4166c33c347b8T.jpg"/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;br/&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;br/&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size:28px"&gt;Уважаемые покупатели, спасибо за покупку нашей продукции. Если есть какие-либо проблемы с получением, пожалуйста, немедленно свяжитесь с нами, мы разберемся с этим как можно скорее. Мы не принимаем вредоносные негативные отзывы. Если вам нравятся наши продукты. Доволен нашей продукцией. Я надеюсь, что вы дадите нам хороший комментарий. Надеюсь, вы сможете получить наш магазин. Вы можете связаться с нами перед следующей покупкой, и мы предоставим вам скидку. Спасибо всем.&lt;/span&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/Hf797632e3fd44709ab3cb4d824df291fa/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
+          <t>https://ae04.alicdn.com/kf/Hec960f53d1b64c8d8d9370e92ecb5cb42/Kanroji-Mitsuri-17.jpg</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/H3fe9a57c524b4f2b9eaa7c3a6c8c3bbbS/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
+          <t>https://ae04.alicdn.com/kf/He638c1e06e234de998277db39f83cdadI/Kanroji-Mitsuri-17.jpg</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/H583f2f01db024c518ff0c2716d9e0741z/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
+          <t>https://ae04.alicdn.com/kf/H7efeddce96c04fca8abd71e1f2116737d/Kanroji-Mitsuri-17.jpg</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/Ha3779ce5d72b421cb3c5d5f967b12d64H/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
+          <t>https://ae04.alicdn.com/kf/Hf7b51eed0b6a449690810e778559847eI/Kanroji-Mitsuri-17.jpg</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/Haf23fab0466c46e89ac45fa8df4ed35e9/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
+          <t>https://ae04.alicdn.com/kf/H4bc0e75b6463479287b88e257c3fdd1fW/Kanroji-Mitsuri-17.jpg</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/H0dd981bc066d44d690083fdeb992db4d5/Alphamax-Skytube-Misaki-Kurchito-Hiro-Cat-girls.jpg</t>
+          <t>https://ae04.alicdn.com/kf/H4319fbe2b4264878837d57fc7d2ebfdbH/Kanroji-Mitsuri-17.jpg</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -1002,300 +1012,420 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>Рекомендованный возраст; Ширина</t>
+          <t>Происхождение</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>18 +</t>
+          <t>Китай</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Происхождение</t>
+          <t>Пол</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Китай</t>
+          <t>Унисекс</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Пол</t>
+          <t>Предупреждение</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Унисекс</t>
+          <t>This product is suitable for adults to buy</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Предупреждение</t>
+          <t>Размеры</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>Only applicable to adults</t>
+          <t>21cm</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>Размеры</t>
+          <t>ACG имя</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>15cm</t>
+          <t>Демон убийца: киметсу нет яйбы</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>ACG имя</t>
+          <t>Серийный номер производителя</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Другое</t>
+          <t>Модель</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>Серийный номер производителя</t>
+          <t>Дистанционное управление</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>Первое издание</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>Характеристики</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>Готовые товары</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Номер модели</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>Demon Slayer Kimetsu No Yaiba Kanroji Mitsuri</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>Вид анимации</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>Япония</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Состояние</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>Товары в наличии</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>Степень готовности</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Готовые товары</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Масштаб</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>1/6</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Тема</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>Кино и ТВ</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>Комплектация</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>Солдатики</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>Материал</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>ПВХ</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>ACG характер</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>For Demon Slayer Kimetsu No Yaiba Kanroji Mitsuri</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>Оригинальная упаковка</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>Тип куклы</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Дистанционное управление</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>Версия</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>Первое издание</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Характеристики</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>Внешние устройства</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>Номер модели</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>Alphamax Skytube Girl Maid By Misaki Kurchito Hiro</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>Вид анимации</t>
-        </is>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>Япония</t>
-        </is>
-      </c>
-      <c r="AU2" t="inlineStr">
-        <is>
-          <t>Состояние</t>
-        </is>
-      </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>Товары в наличии</t>
-        </is>
-      </c>
-      <c r="AW2" t="inlineStr">
-        <is>
-          <t>Степень готовности</t>
-        </is>
-      </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>Готовые товары</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Масштаб</t>
-        </is>
-      </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>1/6</t>
-        </is>
-      </c>
-      <c r="BA2" t="inlineStr">
-        <is>
-          <t>Тема</t>
-        </is>
-      </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>Кино и ТВ</t>
-        </is>
-      </c>
-      <c r="BC2" t="inlineStr">
-        <is>
-          <t>Комплектация</t>
-        </is>
-      </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>Солдатики</t>
-        </is>
-      </c>
-      <c r="BE2" t="inlineStr">
-        <is>
-          <t>Комплектация</t>
-        </is>
-      </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>Набор солдатиков</t>
-        </is>
-      </c>
-      <c r="BG2" t="inlineStr">
-        <is>
-          <t>Комплектация</t>
-        </is>
-      </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>Части и компоненты для солдата</t>
-        </is>
-      </c>
-      <c r="BI2" t="inlineStr">
-        <is>
-          <t>Материал</t>
-        </is>
-      </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>ACG характер</t>
+          <t>Demon Slayer</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>Misaki Kurchito Hiro Cat girls</t>
+          <t>figure</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>Оригинальная упаковка</t>
+          <t>Demon Slayer</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>Anime figure</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>Тип куклы</t>
+          <t>Demon Slayer</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>Модель</t>
+          <t>Kanroji Mitsuri</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
+          <t>Kanroji Mitsuri</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>figures</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>Kanroji Mitsuri action</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>figurine</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>Demon Slayer</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>figurines</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>Demon Slayer</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>Demon Slayer figure</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>pvc</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>Demon Slayer figurine</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>anime</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>Demon Slayer</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>toys</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>Demon Slayer</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>doll</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>Demon Slayer</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>gifts</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>Demon Slayer figure</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>girl</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>Demon Slayer figure</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>Kanroji Mitsuri</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>doll</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
           <t>Минимальная единица измерения</t>
         </is>
       </c>
-      <c r="BR2" t="inlineStr">
+      <c r="CP2" t="inlineStr">
         <is>
           <t>100000015</t>
         </is>
       </c>
-      <c r="BS2" t="inlineStr">
+      <c r="CQ2" t="inlineStr">
         <is>
           <t>Продано В</t>
         </is>
       </c>
-      <c r="BT2" t="inlineStr">
+      <c r="CR2" t="inlineStr">
         <is>
           <t>sell_by_piece</t>
         </is>
       </c>
-      <c r="BU2" t="inlineStr">
+      <c r="CS2" t="inlineStr">
         <is>
           <t>Каждая упаковка</t>
         </is>
       </c>
-      <c r="BV2" t="inlineStr">
+      <c r="CT2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BW2" t="inlineStr">
+      <c r="CU2" t="inlineStr">
         <is>
           <t>Вес логистики</t>
         </is>
       </c>
-      <c r="BX2" t="inlineStr">
-        <is>
-          <t>0.850</t>
-        </is>
-      </c>
-      <c r="BY2" t="inlineStr">
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>0.700</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
         <is>
           <t>Размер логистики - длина (см)</t>
         </is>
       </c>
-      <c r="BZ2" t="inlineStr">
+      <c r="CX2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="CA2" t="inlineStr">
+      <c r="CY2" t="inlineStr">
         <is>
           <t>Размер логистики - высота (см)</t>
         </is>
       </c>
-      <c r="CB2" t="inlineStr">
+      <c r="CZ2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="CC2" t="inlineStr">
+      <c r="DA2" t="inlineStr">
         <is>
           <t>Размер логистики - ширина (см)</t>
         </is>
       </c>
-      <c r="CD2" t="inlineStr">
+      <c r="DB2" t="inlineStr">
         <is>
           <t>25</t>
         </is>
@@ -1304,12 +1434,12 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>Фигурка амакано Мизуки канбаяси, 25 см, масштаб 1/4, ПВХ, экшн-фигурки, игрушки, фигурки аниме, игрушки-модели для взрослых</t>
+          <t>B-STYLE нет игры No Life Shiro Cat Bunny Ver. Привлекательная аниме-Фигурка «свободная», «No Game No Life», экшн-фигурка Shiro, Коллекционная модель игрушки</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4 061,20 руб.</t>
+          <t>1 775,24 руб.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1319,27 +1449,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="relatedProduct" id="1005000000084925" title="" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;Родной Рисунок 25 см амакано Мизуки канбаяси 1/4 Масштаб ПВХ Фигурки игрушки Аниме Фигурка отлитая модель игрушки для взрослых&lt;/span&gt;&lt;/div&gt;&lt;div align="center" style="text-align:center"&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;&lt;/span&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H383c34459efb44cfbe92dbd4503370ac2.jpg"/&gt;&lt;span style='font-size:28px;font-family:"times new roman", times, serif'&gt;&lt;/span&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H9ae4a3005df14be2a01a36d00340c3c4A.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H2f467247552b43a9849540cf078e93516.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H63b52e5440d741089459bd1b3f15f4c9O.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H5d08245d9e834022b8d059dc401cabf7c.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H604aec9daa3a406a9cac9c77fda9826ec.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H0ab0d62e4bc744aea05d484e7dcdac71S.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/Hef7485b874c243f39e30b6cfcf7582e2z.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3814bef7d9b34304af2be47d50294004y.jpg"/&gt;&lt;/p&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
+          <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div id="offer-template-0"&gt;&lt;p style="text-align: left;margin:0;"&gt;&lt;img referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/Hff766305d9dd49c2b30b4fed29ffb2047.jpg?width=950&amp;amp;height=70&amp;amp;hash=1020"/&gt;&lt;/p&gt;&lt;p data-spm-anchor-id="a2g0o.detail.1000023.i0.56b64550XrIzXp" style='padding: 0px; margin: 0px; box-sizing: border-box; font-size: 14px; line-height: inherit; font-weight: 400; color: rgb(0, 0, 0); font-family: "Open Sans", sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: center; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; background-color: rgb(255, 255, 255);'&gt;&lt;strong style="padding: 0px; margin: 0px; box-sizing: border-box; font-weight: 700 !important;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(89, 89, 89);"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 26px;"&gt;&lt;span data-spm-anchor-id="a2g0o.detail.1000023.i0.43b8616bmfjnL6" style='padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-family: "trebuchet ms", helvetica, sans-serif;'&gt;Размер диаметра: 11*24 см&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p style='padding: 0px; margin: 0px; box-sizing: border-box; font-size: 14px; line-height: inherit; font-weight: 400; color: rgb(0, 0, 0); font-family: "Open Sans", sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: center; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; background-color: rgb(255, 255, 255);'&gt;&lt;strong style="padding: 0px; margin: 0px; box-sizing: border-box; font-weight: 700 !important;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(89, 89, 89);"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 26px;"&gt;&lt;span style='padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-family: "trebuchet ms", helvetica, sans-serif;'&gt;Материал: ПВХ&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p style='padding: 0px; margin: 0px; box-sizing: border-box; font-size: 14px; line-height: inherit; font-weight: 400; color: rgb(0, 0, 0); font-family: "Open Sans", sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: center; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; background-color: rgb(255, 255, 255);'&gt;&lt;strong style="padding: 0px; margin: 0px; box-sizing: border-box; font-weight: 700 !important;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(89, 89, 89);"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 26px;"&gt;&lt;span data-spm-anchor-id="a2g0o.detail.1000023.i0.32396313N73EdY" style='padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-family: "trebuchet ms", helvetica, sans-serif;'&gt;Посылка: без розничной коробки/с розничной коробкой&lt;br style="padding: 0px; margin: 0px; box-sizing: border-box;"/&gt;&lt;span data-spm-anchor-id="a2g0o.detail.1000023.i0.198050adZWKlFh" style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; background-color: rgb(231, 76, 60);"&gt;Посылка proteion: защита пузырчатой колонны (пузырчатая пленка)&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;&lt;p style='padding: 0px; margin: 0px; box-sizing: border-box; font-size: 14px; line-height: inherit; font-weight: 400; color: rgb(0, 0, 0); font-family: "Open Sans", sans-serif; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-align: center; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; background-color: rgb(255, 255, 255);'&gt;&lt;strong style="padding: 0px; margin: 0px; box-sizing: border-box; font-weight: 700 !important;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(89, 89, 89);"&gt;&lt;span data-spm-anchor-id="a2g0o.detail.1000023.i1.56b64550XrIzXp" style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-family: tahoma, geneva, sans-serif; font-size: 26px;"&gt;Мы отправим посылку как можно скорее&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt; &lt;img referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/Hc095959555f1437398259a9c6e3aea12a.jpg?width=950&amp;amp;height=70&amp;amp;hash=1020"/&gt;&lt;/p&gt;&lt;/div&gt;&lt;p align="left" style="text-align: center;"&gt;&lt;span style="font-family: simsun;"&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/H0cfd20f2f28d455382760c1bbe069414y.jpg" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/Hf14bcd65b1034cf1a66840bc5f4986feR.jpg?width=800&amp;amp;height=800&amp;amp;hash=1600" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/Hde5ebfa2fb8a46cabd668247993bd568M.jpg" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/Hb361eeebabaf4c1d923d66aa4a5bc049L.jpg" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/Hfd66224b48934ef290df3fca097e876fn.jpg?width=800&amp;amp;height=800&amp;amp;hash=1600" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/H8c2e23271f2f433fb388ee47cd960e22A.jpg?width=800&amp;amp;height=800&amp;amp;hash=1600" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/H419fc04ea9884eeba511407c89ef9100y.jpg" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/Hb7f0c9b7dc574e2899f01b6044c4b480A.jpg" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" height="790" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/H742d5b66a32540d3aab0acbc20dd12098.jpg" width="790"/&gt;&lt;br/&gt;&lt;br/&gt;&lt;img alt="undefined" referrerpolicy="no-referrer" src="https://ae01.alicdn.com/kf/H486f226bfbd74303bdc0cf335447b374d.jpg?width=800&amp;amp;height=800&amp;amp;hash=1600"/&gt;&lt;/span&gt;&lt;br/&gt;&lt;/p&gt;&lt;p style="padding: 0px; margin: 0px; box-sizing: content-box; font-size: 13px; line-height: 16.9px; font-weight: 700; color: rgb(0, 0, 0); font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-family: arial, helvetica, sans-serif; vertical-align: baseline;"&gt;&lt;span data-spm-anchor-id="a2g0o.detail.1000023.i0.5492659baZMeW3" style='padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(255, 102, 0); font-family: "comic sans ms", sans-serif; font-size: 24px; font-style: inherit; font-weight: inherit;'&gt;Детали доставки&lt;/span&gt;&lt;/p&gt;&lt;p style='padding: 0px; margin: 0px; box-sizing: content-box; font-size: 24px; line-height: 36px; font-weight: inherit; font-style: inherit; font-variant-ligatures: normal; font-variant-caps: normal; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(0, 0, 0); font-style: inherit; font-weight: inherit; line-height: inherit; font-size: 22px;"&gt;1. Доставка с номером отслеживания, вы можете проверить его при заказе.&lt;/span&gt;&lt;/p&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 22px;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(0, 0, 0); font-style: inherit; font-weight: inherit; line-height: inherit;"&gt;2. Очень хорошо упакованы, не беспокойтесь о повреждении. Если вы получили его сломанным, мы вернем деньги.&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 22px;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(0, 0, 0); font-style: inherit; font-weight: inherit; line-height: inherit;"&gt;3. Мы отправляем только на подтвержденный адрес заказа. Если вам нужно изменить адрес, пожалуйста, замените заказ.&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 22px;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; color: rgb(0, 0, 0); font-style: inherit; font-weight: inherit; line-height: inherit;"&gt;4. Если вы не получили его во время защиты, мы вернем вам деньги.&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 22px;"&gt;Вопросы и ответы&lt;/span&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 22px;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: content-box; max-width: 100%; word-break: break-word; border: 0px; font-style: inherit; font-weight: inherit; line-height: inherit; vertical-align: baseline; color: rgb(0, 0, 0);"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: content-box; max-width: 100%; word-break: break-word; border: 0px; font-style: inherit; font-weight: inherit; line-height: 27px; vertical-align: baseline;"&gt;1. Есть ли номер отслеживания для моего заказа?&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 22px;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: content-box; max-width: 100%; word-break: break-word; border: 0px; font-style: inherit; font-weight: inherit; line-height: inherit; vertical-align: baseline; color: rgb(0, 0, 0);"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: content-box; max-width: 100%; word-break: break-word; border: 0px; font-style: inherit; font-weight: inherit; line-height: 27px; vertical-align: baseline;"&gt;О: Да, мы отправляем этот заказ с номером отслеживания, и вы можете просмотреть статус доставки на детали ordre.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 22px;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: content-box; max-width: 100%; word-break: break-word; border: 0px; font-style: inherit; font-weight: inherit; line-height: inherit; vertical-align: baseline; color: rgb(0, 0, 0);"&gt;&lt;span data-spm-anchor-id="a2g0o.detail.1000023.i0.7a6d5782446qy4" style="padding: 0px; margin: 0px; box-sizing: content-box; max-width: 100%; word-break: break-word; border: 0px; font-style: inherit; font-weight: inherit; line-height: 27px; vertical-align: baseline;"&gt;2. Будет ли он поврежден во время доставки? Могу ли я получить возврат средств, если он поврежден?&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;div style='padding: 0px; margin: 0px; box-sizing: content-box; font-style: normal; font-variant-ligatures: normal; font-variant-caps: normal; font-weight: 400; letter-spacing: normal; orphans: 2; text-indent: 0px; text-transform: none; white-space: normal; widows: 2; word-spacing: 0px; -webkit-text-stroke-width: 0px; text-decoration-style: initial; text-decoration-color: initial; text-align: start; background-color: rgb(255, 255, 255); border: 0px; font-size: 24px; line-height: 36px; font-family: "comic sans ms", sans-serif; vertical-align: baseline; overflow-wrap: break-word; color: rgb(255, 102, 0);'&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: border-box; max-width: 100%; word-break: break-word; font-size: 22px;"&gt;&lt;span style="padding: 0px; margin: 0px; box-sizing: content-box; max-width: 100%; word-break: break-word; border: 0px; font-style: inherit; font-weight: inherit; line-height: inherit; vertical-align: baseline; color: rgb(0, 0, 0);"&gt;&lt;span data-spm-anchor-id="a2g0o.detail.1000023.i1.5492659baZMeW3" style="padding: 0px; margin: 0px; box-sizing: content-box; max-width: 100%; word-break: break-word; border: 0px; font-style: inherit; font-weight: inherit; line-height: 27px; vertical-align: baseline;"&gt;О: нет, мы будем защищать его хорошо, и он прибудет в хорошем состоянии. Если он поврежден, пожалуйста, сделайте фото, мы вернем вам деньги.&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=239165363;&lt;/script&gt;&lt;/div&gt;</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/H372a09d491dd4717afbc422dbc115eaau/25-1-4.jpg</t>
+          <t>https://ae04.alicdn.com/kf/S0dfdf89b2bc941c3a024c18ef9594b05e/B-STYLE-No-Life-Shiro-Cat-Bunny-Ver.jpg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/Hf3256f7de03b405b8ceac916b0f62e9bW/25-1-4.jpg</t>
+          <t>https://ae04.alicdn.com/kf/S37390db4f0074c4d8c0fffae0ee4b68dC/B-STYLE-No-Life-Shiro-Cat-Bunny-Ver.jpg</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/Hdd6a3731a031437abe2449d8199f3c90p/25-1-4.jpg</t>
+          <t>https://ae04.alicdn.com/kf/Scbb5b80a424d4cf2941d73d80ae87357d/B-STYLE-No-Life-Shiro-Cat-Bunny-Ver.jpg</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://ae04.alicdn.com/kf/Hdcabc760c4ce4dd59671a76b7f0e1375L/25-1-4.jpg</t>
+          <t>https://ae04.alicdn.com/kf/S04962daaf1ae49308efa08e3295650c1y/B-STYLE-No-Life-Shiro-Cat-Bunny-Ver.jpg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://ae04.alicdn.com/kf/S1300d16502244832b33e0635d2313412n/B-STYLE-No-Life-Shiro-Cat-Bunny-Ver.jpg</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://ae04.alicdn.com/kf/Scf40ad531de746c08fdc826dbea94a42q/B-STYLE-No-Life-Shiro-Cat-Bunny-Ver.jpg</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -1349,809 +1489,287 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
+          <t>Apaffa</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Тип товара</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Рекомендованный возраст; Ширина</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Adult</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Рекомендованный возраст; Ширина</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>18 +</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Происхождение</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Китай</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Пол</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Унисекс</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Предупреждение</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Размеры</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>11*24CM</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Серийный номер производителя</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Дистанционное управление</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
           <t>Нет</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Тип товара</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Куклы</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>Рекомендованный возраст; Ширина</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>Adult</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>Рекомендованный возраст; Ширина</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>18 +</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Происхождение</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Пол</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>Унисекс</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Предупреждение</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>Размеры</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>25cm</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>ACG имя</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Другое</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Серийный номер производителя</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Версия</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>Первое издание</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Характеристики</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>Готовые товары</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Номер модели</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Shiro Cat Bunny Ver. Sexy Anime Figure</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Вид анимации</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>Япония</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Состояние</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Товары в наличии</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>Степень готовности</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Готовые товары</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Масштаб</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>1/4</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Тема</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>Кино и ТВ</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>Комплектация</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>Солдатики</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>Материал</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>ПВХ</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>Оригинальная упаковка</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>Тип куклы</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
         <is>
           <t>Модель</t>
         </is>
       </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Дистанционное управление</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Версия</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>Первое издание</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Характеристики</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>Готовые товары</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Номер модели</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>Native Amakano Mizuki Kanbayashi</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>Вид анимации</t>
-        </is>
-      </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>Япония</t>
-        </is>
-      </c>
-      <c r="AU3" t="inlineStr">
-        <is>
-          <t>Состояние</t>
-        </is>
-      </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>Товары в наличии</t>
-        </is>
-      </c>
-      <c r="AW3" t="inlineStr">
-        <is>
-          <t>Степень готовности</t>
-        </is>
-      </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>Готовые товары</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Тема</t>
-        </is>
-      </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>Кино и ТВ</t>
-        </is>
-      </c>
-      <c r="BA3" t="inlineStr">
-        <is>
-          <t>Материал</t>
-        </is>
-      </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
-      <c r="BC3" t="inlineStr">
-        <is>
-          <t>Оригинальная упаковка</t>
-        </is>
-      </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="BE3" t="inlineStr">
-        <is>
-          <t>Тип куклы</t>
-        </is>
-      </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="BG3" t="inlineStr">
-        <is>
-          <t>Amakano Mizuki Kanbayashi</t>
-        </is>
-      </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>figure</t>
-        </is>
-      </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>Amakano Mizuki Kanbayashi</t>
+          <t>Минимальная единица измерения</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>100000015</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
-          <t>native figure</t>
+          <t>Продано В</t>
         </is>
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>Amakano Mizuki Kanbayashi</t>
+          <t>sell_by_piece</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>Amakano Mizuki Kanbayashi</t>
+          <t>Каждая упаковка</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>Минимальная единица измерения</t>
+          <t>Вес логистики</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>100000015</t>
+          <t>0.780</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>Продано В</t>
+          <t>Размер логистики - длина (см)</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>sell_by_piece</t>
+          <t>15</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>Каждая упаковка</t>
+          <t>Размер логистики - высота (см)</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>Вес логистики</t>
+          <t>Размер логистики - ширина (см)</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1.000</t>
-        </is>
-      </c>
-      <c r="BW3" t="inlineStr">
-        <is>
-          <t>Размер логистики - длина (см)</t>
-        </is>
-      </c>
-      <c r="BX3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="BY3" t="inlineStr">
-        <is>
-          <t>Размер логистики - высота (см)</t>
-        </is>
-      </c>
-      <c r="BZ3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="CA3" t="inlineStr">
-        <is>
-          <t>Размер логистики - ширина (см)</t>
-        </is>
-      </c>
-      <c r="CB3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Фигурка Девочки Мидорикава из аниме «дайки», 25 см, иллюстрация цукуне Тайра 1/7, ПВХ экшн-модель, игрушка для взрослых, коллекционный подарок</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1 917,70 руб.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>игрушки</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>&lt;div class="ProductDescription-module_content__1xpeo"&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;div class="detailmodule_dynamic"&gt;&lt;kse:widget data-widget-type="customText" id="1005000000084925" type="relation"&gt;&lt;/kse:widget&gt;&lt;/div&gt;&lt;div class="detailmodule_html"&gt;&lt;div class="detail-desc-decorate-richtext"&gt;&lt;p align="center" style="text-align:center"&gt;&lt;span style="font-size:28px"&gt;Новый аниме Daiki Прачечная девушка Амане Мидорикава иллюстрация от Tsukune Taira 1/6 ПВХ фигурку игрушка статуя для взрослых Коллекция&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;&lt;p align="center" style="text-align:center"&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H7750e5bf4d684b2fbb7537fd3adc7f19Q.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3cb49a0f1c874dfabe9d994be80c6b1fa.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H856bfac77f3b41d0bbe4bf107242d1b5y.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H33d0c750252447e1a33ae74bf1ab4cafn.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H3403fb8541164fb785523ed95e47faefq.jpg"/&gt;&lt;img slate-data-type="image" src="https://ae01.alicdn.com/kf/H6b7fe1c1809d42d0bd63c20f318e58c7f.jpg"/&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="background-color:rgb(255, 255, 255);color:rgb(0, 0, 0);font-size:26px;font-family:OpenSans"&gt;Уважаемые покупатели, спасибо за покупку нашей продукции. Если есть какие-либо проблемы с получением, пожалуйста, немедленно свяжитесь с нами, мы разберемся с этим как можно скорее. Мы не принимаем вредоносные негативные отзывы. Если вам нравятся наши продукты. Доволен нашей продукцией. Я надеюсь, что вы дадите нам хороший комментарий. Надеюсь, вы сможете получить наш магазин. Вы можете связаться с нами перед следующей покупкой, и мы предоставим вам скидку. Спасибо всем.&lt;/span&gt;&lt;/p&gt;&lt;/div&gt;&lt;/div&gt;&lt;br/&gt;&lt;/div&gt;&lt;/div&gt;&lt;script&gt;window.adminAccountId=243675623;&lt;/script&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>https://ae04.alicdn.com/kf/H03f5edf4aeb6474d8e40d1367ab08a6ar/25.jpg</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://ae04.alicdn.com/kf/H6b7fe1c1809d42d0bd63c20f318e58c7f/25.jpg</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>https://ae04.alicdn.com/kf/H33d0c750252447e1a33ae74bf1ab4cafn/25.jpg</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>https://ae04.alicdn.com/kf/H3cb49a0f1c874dfabe9d994be80c6b1fa/25.jpg</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>https://ae04.alicdn.com/kf/H7750e5bf4d684b2fbb7537fd3adc7f19Q/25.jpg</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>https://ae04.alicdn.com/kf/H856bfac77f3b41d0bbe4bf107242d1b5y/25.jpg</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Название бренда</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Esencan</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Тип товара</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Рекомендованный возраст; Ширина</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>Adult</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>Рекомендованный возраст; Ширина</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>18 +</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Происхождение</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Китай</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>Пол</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>Унисекс</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Предупреждение</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>This product is suitable for adult purchase</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>Размеры</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>17cm</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>ACG имя</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Другое</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Серийный номер производителя</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Дистанционное управление</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Версия</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>Обновленная версия</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Характеристики</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>Готовые товары</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Номер модели</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>Daiki Tsukune Taira</t>
-        </is>
-      </c>
-      <c r="AS4" t="inlineStr">
-        <is>
-          <t>Вид анимации</t>
-        </is>
-      </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>Япония</t>
-        </is>
-      </c>
-      <c r="AU4" t="inlineStr">
-        <is>
-          <t>Состояние</t>
-        </is>
-      </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>Товары в наличии</t>
-        </is>
-      </c>
-      <c r="AW4" t="inlineStr">
-        <is>
-          <t>Степень готовности</t>
-        </is>
-      </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>Готовые товары</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Масштаб</t>
-        </is>
-      </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>1/6</t>
-        </is>
-      </c>
-      <c r="BA4" t="inlineStr">
-        <is>
-          <t>Тема</t>
-        </is>
-      </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>Кино и ТВ</t>
-        </is>
-      </c>
-      <c r="BC4" t="inlineStr">
-        <is>
-          <t>Комплектация</t>
-        </is>
-      </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>Солдатики</t>
-        </is>
-      </c>
-      <c r="BE4" t="inlineStr">
-        <is>
-          <t>Комплектация</t>
-        </is>
-      </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>Набор солдатиков</t>
-        </is>
-      </c>
-      <c r="BG4" t="inlineStr">
-        <is>
-          <t>Комплектация</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>Части и компоненты для солдата</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>Материал</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>ПВХ</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>ACG характер</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>for Daiki Amane Midorikawa Tsukune Taira</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>Оригинальная упаковка</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>Тип куклы</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>Daiki</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>Anime</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>Daiki</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>Model</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>Daiki</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>Toys</t>
-        </is>
-      </c>
-      <c r="BW4" t="inlineStr">
-        <is>
-          <t>Daiki</t>
-        </is>
-      </c>
-      <c r="BX4" t="inlineStr">
-        <is>
-          <t>Gifts</t>
-        </is>
-      </c>
-      <c r="BY4" t="inlineStr">
-        <is>
-          <t>Daiki</t>
-        </is>
-      </c>
-      <c r="BZ4" t="inlineStr">
-        <is>
-          <t>Dolls</t>
-        </is>
-      </c>
-      <c r="CA4" t="inlineStr">
-        <is>
-          <t>Daiki</t>
-        </is>
-      </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>Figure</t>
-        </is>
-      </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>Daiki</t>
-        </is>
-      </c>
-      <c r="CD4" t="inlineStr">
-        <is>
-          <t>Grils</t>
-        </is>
-      </c>
-      <c r="CE4" t="inlineStr">
-        <is>
-          <t>Native</t>
-        </is>
-      </c>
-      <c r="CF4" t="inlineStr">
-        <is>
-          <t>Adult</t>
-        </is>
-      </c>
-      <c r="CG4" t="inlineStr">
-        <is>
-          <t>Skytube</t>
-        </is>
-      </c>
-      <c r="CH4" t="inlineStr">
-        <is>
-          <t>Amane Midorikawa</t>
-        </is>
-      </c>
-      <c r="CI4" t="inlineStr">
-        <is>
-          <t>Q SIX</t>
-        </is>
-      </c>
-      <c r="CJ4" t="inlineStr">
-        <is>
-          <t>Tsukune Taira</t>
-        </is>
-      </c>
-      <c r="CK4" t="inlineStr">
-        <is>
-          <t>Daiki</t>
-        </is>
-      </c>
-      <c r="CL4" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="CM4" t="inlineStr">
-        <is>
-          <t>Минимальная единица измерения</t>
-        </is>
-      </c>
-      <c r="CN4" t="inlineStr">
-        <is>
-          <t>100000015</t>
-        </is>
-      </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>Продано В</t>
-        </is>
-      </c>
-      <c r="CP4" t="inlineStr">
-        <is>
-          <t>sell_by_piece</t>
-        </is>
-      </c>
-      <c r="CQ4" t="inlineStr">
-        <is>
-          <t>Каждая упаковка</t>
-        </is>
-      </c>
-      <c r="CR4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CS4" t="inlineStr">
-        <is>
-          <t>Вес логистики</t>
-        </is>
-      </c>
-      <c r="CT4" t="inlineStr">
-        <is>
-          <t>0.700</t>
-        </is>
-      </c>
-      <c r="CU4" t="inlineStr">
-        <is>
-          <t>Размер логистики - длина (см)</t>
-        </is>
-      </c>
-      <c r="CV4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="CW4" t="inlineStr">
-        <is>
-          <t>Размер логистики - высота (см)</t>
-        </is>
-      </c>
-      <c r="CX4" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="CY4" t="inlineStr">
-        <is>
-          <t>Размер логистики - ширина (см)</t>
-        </is>
-      </c>
-      <c r="CZ4" t="inlineStr">
-        <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
     </row>
